--- a/bin/sheets/main_db/teams/NZL/PlayerPerformance_3839.xlsx
+++ b/bin/sheets/main_db/teams/NZL/PlayerPerformance_3839.xlsx
@@ -7,8 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,6 +428,69 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_HAND</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>BOWL_STYLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3839</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Adam F Milne</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Right Handed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Right Arm Medium Fast</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -452,7 +517,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -504,7 +569,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3448</t>
+          <t>3448</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -544,7 +609,6 @@
           <t>2</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
           <t>12/11/2012</t>
@@ -552,7 +616,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3449</t>
+          <t>3449</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -592,7 +656,6 @@
           <t>3</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
           <t>03/11/2013</t>
@@ -600,7 +663,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3573</t>
+          <t>3573</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -640,7 +703,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
           <t>10/11/2013</t>
@@ -648,7 +710,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3576</t>
+          <t>3576</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -688,7 +750,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
           <t>12/11/2013</t>
@@ -696,7 +757,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3578</t>
+          <t>3578</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -736,7 +797,6 @@
           <t>6</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
           <t>01/01/2014</t>
@@ -744,7 +804,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3596</t>
+          <t>3596</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -784,7 +844,6 @@
           <t>7</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
           <t>19/01/2014</t>
@@ -792,7 +851,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3601</t>
+          <t>3601</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -832,7 +891,6 @@
           <t>8</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
           <t>08/12/2014</t>
@@ -840,7 +898,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3713</t>
+          <t>3713</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -880,7 +938,6 @@
           <t>9</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
           <t>12/12/2014</t>
@@ -888,7 +945,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3715</t>
+          <t>3715</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -928,7 +985,6 @@
           <t>10</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
           <t>17/12/2014</t>
@@ -936,7 +992,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3719</t>
+          <t>3719</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -976,7 +1032,6 @@
           <t>11</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
           <t>19/12/2014</t>
@@ -984,7 +1039,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3720</t>
+          <t>3720</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1036,7 +1091,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3723</t>
+          <t>3723</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1088,7 +1143,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3726</t>
+          <t>3726</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1128,7 +1183,6 @@
           <t>14</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr">
         <is>
           <t>20/01/2015</t>
@@ -1136,7 +1190,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3734</t>
+          <t>3734</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1176,7 +1230,6 @@
           <t>15</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
           <t>31/01/2015</t>
@@ -1184,7 +1237,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3745</t>
+          <t>3745</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1224,7 +1277,6 @@
           <t>16</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr">
         <is>
           <t>03/02/2015</t>
@@ -1232,7 +1284,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3747</t>
+          <t>3747</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1272,7 +1324,6 @@
           <t>17</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr">
         <is>
           <t>14/02/2015</t>
@@ -1280,7 +1331,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3748</t>
+          <t>3748</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1332,7 +1383,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3753</t>
+          <t>3753</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1372,7 +1423,6 @@
           <t>19</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr">
         <is>
           <t>20/02/2015</t>
@@ -1380,7 +1430,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3756</t>
+          <t>3756</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1432,7 +1482,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3767</t>
+          <t>3767</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1472,7 +1522,6 @@
           <t>21</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr">
         <is>
           <t>08/03/2015</t>
@@ -1480,7 +1529,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3778</t>
+          <t>3778</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1520,7 +1569,6 @@
           <t>22</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr">
         <is>
           <t>21/03/2015</t>
@@ -1528,7 +1576,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3793</t>
+          <t>3793</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1580,7 +1628,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3826</t>
+          <t>3826</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1620,7 +1668,6 @@
           <t>24</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr">
         <is>
           <t>23/08/2015</t>
@@ -1628,7 +1675,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3827</t>
+          <t>3827</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1680,7 +1727,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3828</t>
+          <t>3828</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1720,7 +1767,6 @@
           <t>26</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr">
         <is>
           <t>26/12/2015</t>
@@ -1728,7 +1774,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3865</t>
+          <t>3865</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1780,7 +1826,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3868</t>
+          <t>3868</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1820,7 +1866,6 @@
           <t>28</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr">
         <is>
           <t>02/01/2016</t>
@@ -1828,7 +1873,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3870</t>
+          <t>3870</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1868,7 +1913,6 @@
           <t>29</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr">
         <is>
           <t>05/01/2016</t>
@@ -1876,7 +1920,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3872</t>
+          <t>3872</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1928,7 +1972,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3883</t>
+          <t>3883</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1980,7 +2024,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3884</t>
+          <t>3884</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2032,7 +2076,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3886</t>
+          <t>3886</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2084,7 +2128,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3888</t>
+          <t>3888</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2136,7 +2180,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4026</t>
+          <t>4026</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2188,7 +2232,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4032</t>
+          <t>4032</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2240,7 +2284,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4036</t>
+          <t>4036</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2292,7 +2336,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4039</t>
+          <t>4039</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2332,7 +2376,6 @@
           <t>38</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr">
         <is>
           <t>22/10/2017</t>
@@ -2340,7 +2383,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4085</t>
+          <t>4085</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2392,7 +2435,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4088</t>
+          <t>4088</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2432,7 +2475,6 @@
           <t>40</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr">
         <is>
           <t>29/10/2017</t>
@@ -2440,7 +2482,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4089</t>
+          <t>4089</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2480,7 +2522,6 @@
           <t>41</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr"/>
       <c r="C42" t="inlineStr">
         <is>
           <t>25/11/2022</t>
@@ -2488,7 +2529,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4669</t>
+          <t>4669</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2528,7 +2569,6 @@
           <t>42</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr">
         <is>
           <t>30/11/2022</t>
@@ -2536,7 +2576,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4676</t>
+          <t>4676</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2575,7 +2615,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2597,7 +2637,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -2634,7 +2674,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3448</t>
+          <t>3448</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -2671,7 +2711,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3449</t>
+          <t>3449</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -2708,7 +2748,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3573</t>
+          <t>3573</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -2745,7 +2785,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3576</t>
+          <t>3576</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -2782,7 +2822,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3578</t>
+          <t>3578</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -2819,7 +2859,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3596</t>
+          <t>3596</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -2856,7 +2896,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3601</t>
+          <t>3601</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -2893,7 +2933,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3713</t>
+          <t>3713</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -2930,7 +2970,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3715</t>
+          <t>3715</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -2967,7 +3007,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3719</t>
+          <t>3719</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -3004,7 +3044,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3720</t>
+          <t>3720</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -3041,7 +3081,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3723</t>
+          <t>3723</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -3078,7 +3118,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3726</t>
+          <t>3726</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -3115,7 +3155,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3734</t>
+          <t>3734</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -3152,7 +3192,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3745</t>
+          <t>3745</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -3189,7 +3229,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3747</t>
+          <t>3747</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -3226,7 +3266,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3748</t>
+          <t>3748</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -3263,7 +3303,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3753</t>
+          <t>3753</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -3300,7 +3340,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3756</t>
+          <t>3756</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -3337,7 +3377,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3767</t>
+          <t>3767</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -3374,7 +3414,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3778</t>
+          <t>3778</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -3411,7 +3451,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3793</t>
+          <t>3793</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -3448,7 +3488,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3826</t>
+          <t>3826</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -3485,7 +3525,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3827</t>
+          <t>3827</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -3522,7 +3562,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3828</t>
+          <t>3828</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -3559,7 +3599,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3865</t>
+          <t>3865</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -3596,7 +3636,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3868</t>
+          <t>3868</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -3633,7 +3673,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3872</t>
+          <t>3872</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -3670,7 +3710,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3883</t>
+          <t>3883</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -3707,7 +3747,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3884</t>
+          <t>3884</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -3744,7 +3784,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3886</t>
+          <t>3886</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -3781,7 +3821,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3888</t>
+          <t>3888</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -3818,7 +3858,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4026</t>
+          <t>4026</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -3855,7 +3895,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4032</t>
+          <t>4032</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -3892,7 +3932,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4036</t>
+          <t>4036</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -3929,7 +3969,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4039</t>
+          <t>4039</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -3966,7 +4006,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4085</t>
+          <t>4085</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -4003,7 +4043,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4088</t>
+          <t>4088</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -4040,7 +4080,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4089</t>
+          <t>4089</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -4077,7 +4117,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4669</t>
+          <t>4669</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -4114,7 +4154,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4676</t>
+          <t>4676</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -4140,6 +4180,497 @@
       <c r="G42" t="inlineStr">
         <is>
           <t>3/57</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3826</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>9</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>5.28%</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>3827</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>10</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3828</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>9</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>1.81%</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>3865</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>9</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>3868</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>3870</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>3872</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>9</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>3883</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>9</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>3884</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>3886</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>12.81%</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>3888</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>9</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2.03%</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4026</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>8</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>2.91%</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4032</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>9</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>3.78%</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4036</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>9</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>4.48%</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4039</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4085</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4088</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4089</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>10</v>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4669</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>8</v>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4676</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>7</v>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
     </row>

--- a/bin/sheets/main_db/teams/NZL/PlayerPerformance_3839.xlsx
+++ b/bin/sheets/main_db/teams/NZL/PlayerPerformance_3839.xlsx
@@ -11,6 +11,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4273,9 +4274,6 @@
       <c r="B3" t="n">
         <v>10</v>
       </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
           <t>NO</t>
@@ -4321,9 +4319,6 @@
       <c r="B5" t="n">
         <v>9</v>
       </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
           <t>NO</t>
@@ -4336,10 +4331,6 @@
           <t>3868</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
           <t>NO</t>
@@ -4352,15 +4343,424 @@
           <t>3870</t>
         </is>
       </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>3872</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>9</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>3883</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>9</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>3884</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>3886</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>12.81%</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>3888</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>9</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2.03%</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4026</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>8</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>2.91%</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4032</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>9</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>3.78%</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4036</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>9</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>4.48%</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4039</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4085</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4088</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4089</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>10</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4669</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>8</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4676</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>7</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>MAIDEN_OVERS</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_WICKETS_OF_ALL</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3793</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>3826</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3827</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>3828</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>3865</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>3868</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -4368,15 +4768,14 @@
           <t>3872</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>9</v>
-      </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -4386,23 +4785,14 @@
           <t>3883</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>9</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>30.00%</t>
         </is>
       </c>
     </row>
@@ -4414,13 +4804,6 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -4428,29 +4811,12 @@
           <t>3886</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>9</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>12.81%</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -4458,27 +4824,14 @@
           <t>3888</t>
         </is>
       </c>
-      <c r="B12" t="n">
-        <v>9</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>2.03%</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -4488,27 +4841,14 @@
           <t>4026</t>
         </is>
       </c>
-      <c r="B13" t="n">
-        <v>8</v>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>2.91%</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -4518,27 +4858,14 @@
           <t>4032</t>
         </is>
       </c>
-      <c r="B14" t="n">
-        <v>9</v>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>3.78%</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>20.00%</t>
         </is>
       </c>
     </row>
@@ -4548,27 +4875,14 @@
           <t>4036</t>
         </is>
       </c>
-      <c r="B15" t="n">
-        <v>9</v>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>4.48%</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>30.00%</t>
         </is>
       </c>
     </row>
@@ -4580,13 +4894,6 @@
       </c>
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4596,13 +4903,6 @@
       </c>
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4612,13 +4912,6 @@
       </c>
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4626,15 +4919,14 @@
           <t>4089</t>
         </is>
       </c>
-      <c r="B19" t="n">
-        <v>10</v>
-      </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>20.00%</t>
         </is>
       </c>
     </row>
@@ -4644,15 +4936,14 @@
           <t>4669</t>
         </is>
       </c>
-      <c r="B20" t="n">
-        <v>8</v>
-      </c>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -4662,15 +4953,14 @@
           <t>4676</t>
         </is>
       </c>
-      <c r="B21" t="n">
-        <v>7</v>
-      </c>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>30.00%</t>
         </is>
       </c>
     </row>

--- a/bin/sheets/main_db/teams/NZL/PlayerPerformance_3839.xlsx
+++ b/bin/sheets/main_db/teams/NZL/PlayerPerformance_3839.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -622,7 +621,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -4274,6 +4273,9 @@
       <c r="B3" t="n">
         <v>10</v>
       </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
           <t>NO</t>
@@ -4319,6 +4321,9 @@
       <c r="B5" t="n">
         <v>9</v>
       </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
           <t>NO</t>
@@ -4331,6 +4336,10 @@
           <t>3868</t>
         </is>
       </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
           <t>NO</t>
@@ -4343,6 +4352,10 @@
           <t>3870</t>
         </is>
       </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
           <t>NO</t>
@@ -4358,6 +4371,9 @@
       <c r="B8" t="n">
         <v>9</v>
       </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
           <t>NO</t>
@@ -4383,6 +4399,7 @@
           <t>0</t>
         </is>
       </c>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
           <t>NO</t>
@@ -4395,6 +4412,10 @@
           <t>3884</t>
         </is>
       </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
           <t>NO</t>
@@ -4557,6 +4578,10 @@
           <t>4039</t>
         </is>
       </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
           <t>NO</t>
@@ -4569,6 +4594,10 @@
           <t>4085</t>
         </is>
       </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
           <t>NO</t>
@@ -4581,6 +4610,10 @@
           <t>4088</t>
         </is>
       </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
           <t>NO</t>
@@ -4596,6 +4629,9 @@
       <c r="B19" t="n">
         <v>10</v>
       </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
           <t>NO</t>
@@ -4611,6 +4647,9 @@
       <c r="B20" t="n">
         <v>8</v>
       </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr">
         <is>
           <t>NO</t>
@@ -4626,341 +4665,12 @@
       <c r="B21" t="n">
         <v>7</v>
       </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr">
         <is>
           <t>NO</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>MAIDEN_OVERS</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_WICKETS_OF_ALL</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>3793</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>3826</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>3827</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>3828</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>3865</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>3868</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>3872</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>3883</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>30.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>3884</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>3886</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>3888</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4026</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4032</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4036</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>30.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4039</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4085</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4088</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4089</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4669</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4676</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>30.00%</t>
         </is>
       </c>
     </row>

--- a/bin/sheets/main_db/teams/NZL/PlayerPerformance_3839.xlsx
+++ b/bin/sheets/main_db/teams/NZL/PlayerPerformance_3839.xlsx
@@ -10,7 +10,6 @@
     <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -609,6 +608,7 @@
           <t>2</t>
         </is>
       </c>
+      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
           <t>12/11/2012</t>
@@ -656,6 +656,7 @@
           <t>3</t>
         </is>
       </c>
+      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
           <t>03/11/2013</t>
@@ -703,6 +704,7 @@
           <t>4</t>
         </is>
       </c>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
           <t>10/11/2013</t>
@@ -750,6 +752,7 @@
           <t>5</t>
         </is>
       </c>
+      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
           <t>12/11/2013</t>
@@ -797,6 +800,7 @@
           <t>6</t>
         </is>
       </c>
+      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
           <t>01/01/2014</t>
@@ -844,6 +848,7 @@
           <t>7</t>
         </is>
       </c>
+      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
           <t>19/01/2014</t>
@@ -891,6 +896,7 @@
           <t>8</t>
         </is>
       </c>
+      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
           <t>08/12/2014</t>
@@ -938,6 +944,7 @@
           <t>9</t>
         </is>
       </c>
+      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
           <t>12/12/2014</t>
@@ -985,6 +992,7 @@
           <t>10</t>
         </is>
       </c>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
           <t>17/12/2014</t>
@@ -1032,6 +1040,7 @@
           <t>11</t>
         </is>
       </c>
+      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
           <t>19/12/2014</t>
@@ -1183,6 +1192,7 @@
           <t>14</t>
         </is>
       </c>
+      <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr">
         <is>
           <t>20/01/2015</t>
@@ -1230,6 +1240,7 @@
           <t>15</t>
         </is>
       </c>
+      <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
           <t>31/01/2015</t>
@@ -1277,6 +1288,7 @@
           <t>16</t>
         </is>
       </c>
+      <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr">
         <is>
           <t>03/02/2015</t>
@@ -1324,6 +1336,7 @@
           <t>17</t>
         </is>
       </c>
+      <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr">
         <is>
           <t>14/02/2015</t>
@@ -1423,6 +1436,7 @@
           <t>19</t>
         </is>
       </c>
+      <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr">
         <is>
           <t>20/02/2015</t>
@@ -1522,6 +1536,7 @@
           <t>21</t>
         </is>
       </c>
+      <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr">
         <is>
           <t>08/03/2015</t>
@@ -1569,6 +1584,7 @@
           <t>22</t>
         </is>
       </c>
+      <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr">
         <is>
           <t>21/03/2015</t>
@@ -1668,6 +1684,7 @@
           <t>24</t>
         </is>
       </c>
+      <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr">
         <is>
           <t>23/08/2015</t>
@@ -1767,6 +1784,7 @@
           <t>26</t>
         </is>
       </c>
+      <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr">
         <is>
           <t>26/12/2015</t>
@@ -1866,6 +1884,7 @@
           <t>28</t>
         </is>
       </c>
+      <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr">
         <is>
           <t>02/01/2016</t>
@@ -1913,6 +1932,7 @@
           <t>29</t>
         </is>
       </c>
+      <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr">
         <is>
           <t>05/01/2016</t>
@@ -2376,6 +2396,7 @@
           <t>38</t>
         </is>
       </c>
+      <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr">
         <is>
           <t>22/10/2017</t>
@@ -2475,6 +2496,7 @@
           <t>40</t>
         </is>
       </c>
+      <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr">
         <is>
           <t>29/10/2017</t>
@@ -2522,6 +2544,7 @@
           <t>41</t>
         </is>
       </c>
+      <c r="B42" t="inlineStr"/>
       <c r="C42" t="inlineStr">
         <is>
           <t>25/11/2022</t>
@@ -2569,6 +2592,7 @@
           <t>42</t>
         </is>
       </c>
+      <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr">
         <is>
           <t>30/11/2022</t>
@@ -4186,495 +4210,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>BATTING_POSITION</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_4</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_6</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_RUNS_OF_TOTAL</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>MAN_OF_MATCH</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>3826</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>9</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>5.28%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>3827</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>10</v>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>3828</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>9</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>1.81%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>3865</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>9</v>
-      </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>3868</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>3870</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>3872</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>9</v>
-      </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>3883</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>9</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>3884</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>3886</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>9</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>12.81%</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>3888</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>9</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>2.03%</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4026</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>8</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>2.91%</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4032</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>9</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>3.78%</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4036</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>9</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>4.48%</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4039</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4085</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4088</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4089</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>10</v>
-      </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4669</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>8</v>
-      </c>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4676</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>7</v>
-      </c>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/bin/sheets/main_db/teams/NZL/PlayerPerformance_3839.xlsx
+++ b/bin/sheets/main_db/teams/NZL/PlayerPerformance_3839.xlsx
@@ -10,6 +10,7 @@
     <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -608,7 +609,6 @@
           <t>2</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
           <t>12/11/2012</t>
@@ -656,7 +656,6 @@
           <t>3</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
           <t>03/11/2013</t>
@@ -704,7 +703,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
           <t>10/11/2013</t>
@@ -752,7 +750,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
           <t>12/11/2013</t>
@@ -800,7 +797,6 @@
           <t>6</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
           <t>01/01/2014</t>
@@ -848,7 +844,6 @@
           <t>7</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
           <t>19/01/2014</t>
@@ -896,7 +891,6 @@
           <t>8</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
           <t>08/12/2014</t>
@@ -944,7 +938,6 @@
           <t>9</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
           <t>12/12/2014</t>
@@ -992,7 +985,6 @@
           <t>10</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
           <t>17/12/2014</t>
@@ -1040,7 +1032,6 @@
           <t>11</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
           <t>19/12/2014</t>
@@ -1192,7 +1183,6 @@
           <t>14</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr">
         <is>
           <t>20/01/2015</t>
@@ -1240,7 +1230,6 @@
           <t>15</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
           <t>31/01/2015</t>
@@ -1288,7 +1277,6 @@
           <t>16</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr">
         <is>
           <t>03/02/2015</t>
@@ -1336,7 +1324,6 @@
           <t>17</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr">
         <is>
           <t>14/02/2015</t>
@@ -1436,7 +1423,6 @@
           <t>19</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr">
         <is>
           <t>20/02/2015</t>
@@ -1536,7 +1522,6 @@
           <t>21</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr">
         <is>
           <t>08/03/2015</t>
@@ -1584,7 +1569,6 @@
           <t>22</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr">
         <is>
           <t>21/03/2015</t>
@@ -1684,7 +1668,6 @@
           <t>24</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr">
         <is>
           <t>23/08/2015</t>
@@ -1784,7 +1767,6 @@
           <t>26</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr">
         <is>
           <t>26/12/2015</t>
@@ -1884,7 +1866,6 @@
           <t>28</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr">
         <is>
           <t>02/01/2016</t>
@@ -1932,7 +1913,6 @@
           <t>29</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr">
         <is>
           <t>05/01/2016</t>
@@ -2396,7 +2376,6 @@
           <t>38</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr">
         <is>
           <t>22/10/2017</t>
@@ -2496,7 +2475,6 @@
           <t>40</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr">
         <is>
           <t>29/10/2017</t>
@@ -2544,7 +2522,6 @@
           <t>41</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr"/>
       <c r="C42" t="inlineStr">
         <is>
           <t>25/11/2022</t>
@@ -2592,7 +2569,6 @@
           <t>42</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr">
         <is>
           <t>30/11/2022</t>
@@ -4210,4 +4186,909 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3448</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>3449</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3573</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>10</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>3576</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>10</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>3578</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>10</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>3596</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>3601</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>10</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>3713</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>11</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>3715</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>3719</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>3720</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>3723</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>9</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>3.20%</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>3726</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>3734</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>10</v>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>3745</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>10</v>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>3747</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>10</v>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>3748</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>10</v>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>3753</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>9</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>0.68%</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>3756</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>9</v>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>3767</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>9</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>3778</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>3793</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>10</v>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>3826</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>9</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>5.28%</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>3827</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>10</v>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>3828</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>9</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>1.81%</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>3865</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>9</v>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>3868</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>3870</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>3872</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>9</v>
+      </c>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>3883</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>9</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>3884</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>3886</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>9</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>12.81%</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>3888</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>9</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>2.03%</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>4026</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>8</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>2.91%</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>4032</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>9</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>3.78%</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>4036</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>9</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>4.48%</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>4039</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr"/>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>4085</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr"/>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>4088</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr"/>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>4089</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>10</v>
+      </c>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>4669</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>8</v>
+      </c>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>4676</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>7</v>
+      </c>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>